--- a/BedivereKnxClient/data.xlsx
+++ b/BedivereKnxClient/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Program\Ouroboros\BedivereKnxClient\BedivereKnxClient\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBBFC490-2BBC-4EB8-AFBE-44B62A2D8FB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{318F8BCB-36E2-4506-848E-CD26A8ED8BFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Interfaces" sheetId="4" r:id="rId1"/>
@@ -19,10 +19,11 @@
     <sheet name="Scenes" sheetId="3" r:id="rId4"/>
     <sheet name="Devices" sheetId="10" r:id="rId5"/>
     <sheet name="Schedules" sheetId="5" r:id="rId6"/>
-    <sheet name="Index_DPT" sheetId="7" state="hidden" r:id="rId7"/>
-    <sheet name="Index_IfType" sheetId="6" state="hidden" r:id="rId8"/>
-    <sheet name="Index_ObjType" sheetId="8" state="hidden" r:id="rId9"/>
-    <sheet name="Index_TgtType" sheetId="9" state="hidden" r:id="rId10"/>
+    <sheet name="Links" sheetId="11" r:id="rId7"/>
+    <sheet name="Index_DPT" sheetId="7" state="hidden" r:id="rId8"/>
+    <sheet name="Index_IfType" sheetId="6" state="hidden" r:id="rId9"/>
+    <sheet name="Index_ObjType" sheetId="8" state="hidden" r:id="rId10"/>
+    <sheet name="Index_TgtType" sheetId="9" state="hidden" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -199,7 +200,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2719" uniqueCount="1413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2727" uniqueCount="1422">
   <si>
     <t>AreaCode</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3045,10 +3046,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Address</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>InterfaceType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3222,14 +3219,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Sw_DPT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Val_DPT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.xxx: 1-bit</t>
   </si>
   <si>
@@ -4376,22 +4365,6 @@
     <t>275.101: Temperature setpoint shift setting for 4 HVAC Modes</t>
   </si>
   <si>
-    <t>Sw_CtlAddr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sw_FdbAddr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Val_CtlAddr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Val_FdbAddr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GR_WDGRALJG_105</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4592,6 +4565,70 @@
   </si>
   <si>
     <t>KNX网关&amp;逻辑控制器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IndividualAddress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GrpAddr-Sw_Ctl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GrpDpt-Sw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GrpAddr-Sw_Fdb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GrpDpt-Val</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GrpAddr-Val_Ctl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GrpAddr-Val_Fdb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InterfaceAddress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LinkName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LinkUrl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Account</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>链接名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>链接地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4959,14 +4996,15 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.77734375" style="3" customWidth="1"/>
     <col min="2" max="2" width="20.77734375" style="3" customWidth="1"/>
-    <col min="3" max="4" width="15.77734375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="15.77734375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="16.77734375" style="3" customWidth="1"/>
     <col min="5" max="5" width="10.77734375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4978,10 +5016,10 @@
         <v>22</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>913</v>
+        <v>1413</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>4</v>
@@ -4995,7 +5033,7 @@
         <v>226</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>912</v>
@@ -5012,7 +5050,7 @@
         <v>15</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>7</v>
@@ -5029,7 +5067,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>8</v>
@@ -5046,7 +5084,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>9</v>
@@ -5063,7 +5101,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>10</v>
@@ -5080,7 +5118,7 @@
         <v>18</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>11</v>
@@ -5097,7 +5135,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>12</v>
@@ -5114,7 +5152,7 @@
         <v>19</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>13</v>
@@ -5144,6 +5182,49 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7A363C5-B214-4483-A9DD-5B6CA8B64644}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>943</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B457E3A4-CFB1-4081-BCA7-FADED584E9D8}">
   <dimension ref="A1:A4"/>
   <sheetViews>
@@ -5161,12 +5242,12 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
@@ -5637,7 +5718,7 @@
   <dimension ref="A1:K242"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -5648,9 +5729,9 @@
     <col min="4" max="4" width="15.77734375" style="3" customWidth="1"/>
     <col min="5" max="5" width="20.77734375" style="3" customWidth="1"/>
     <col min="6" max="6" width="17.33203125" style="3" customWidth="1"/>
-    <col min="7" max="8" width="15.77734375" style="3" customWidth="1"/>
+    <col min="7" max="8" width="16.77734375" style="3" customWidth="1"/>
     <col min="9" max="9" width="17.33203125" style="3" customWidth="1"/>
-    <col min="10" max="11" width="15.77734375" style="3" customWidth="1"/>
+    <col min="10" max="11" width="16.77734375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5670,22 +5751,22 @@
         <v>911</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>962</v>
+        <v>1408</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>1346</v>
+        <v>1407</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>1347</v>
+        <v>1409</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>963</v>
+        <v>1410</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>1348</v>
+        <v>1411</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>1349</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5702,25 +5783,25 @@
         <v>240</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>955</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>956</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>957</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>958</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>959</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>960</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>961</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -5740,7 +5821,7 @@
         <v>771</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>104</v>
@@ -5766,7 +5847,7 @@
         <v>772</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>106</v>
@@ -5792,7 +5873,7 @@
         <v>773</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>107</v>
@@ -5818,7 +5899,7 @@
         <v>774</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>108</v>
@@ -5844,7 +5925,7 @@
         <v>775</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>109</v>
@@ -5870,7 +5951,7 @@
         <v>776</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>110</v>
@@ -5896,7 +5977,7 @@
         <v>777</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>111</v>
@@ -5922,7 +6003,7 @@
         <v>778</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>112</v>
@@ -5948,7 +6029,7 @@
         <v>779</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>113</v>
@@ -5974,7 +6055,7 @@
         <v>780</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>114</v>
@@ -6000,7 +6081,7 @@
         <v>781</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>115</v>
@@ -6023,7 +6104,7 @@
         <v>71</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>116</v>
@@ -6046,7 +6127,7 @@
         <v>71</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>117</v>
@@ -6069,7 +6150,7 @@
         <v>71</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>118</v>
@@ -6092,7 +6173,7 @@
         <v>71</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>119</v>
@@ -6115,7 +6196,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>120</v>
@@ -6138,7 +6219,7 @@
         <v>71</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>121</v>
@@ -6161,7 +6242,7 @@
         <v>71</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>122</v>
@@ -6187,7 +6268,7 @@
         <v>782</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>123</v>
@@ -6210,7 +6291,7 @@
         <v>71</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>124</v>
@@ -6236,7 +6317,7 @@
         <v>772</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>125</v>
@@ -6262,7 +6343,7 @@
         <v>783</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>126</v>
@@ -6288,7 +6369,7 @@
         <v>781</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>127</v>
@@ -6311,7 +6392,7 @@
         <v>71</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>128</v>
@@ -6334,7 +6415,7 @@
         <v>71</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>129</v>
@@ -6357,7 +6438,7 @@
         <v>71</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>130</v>
@@ -6380,7 +6461,7 @@
         <v>71</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>131</v>
@@ -6403,7 +6484,7 @@
         <v>71</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>132</v>
@@ -6426,7 +6507,7 @@
         <v>71</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>133</v>
@@ -6449,7 +6530,7 @@
         <v>71</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>134</v>
@@ -6472,7 +6553,7 @@
         <v>71</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>135</v>
@@ -6495,7 +6576,7 @@
         <v>71</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>136</v>
@@ -6521,7 +6602,7 @@
         <v>775</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>200</v>
@@ -6547,7 +6628,7 @@
         <v>784</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G36" s="3" t="s">
         <v>844</v>
@@ -6573,7 +6654,7 @@
         <v>771</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G37" s="3" t="s">
         <v>845</v>
@@ -6599,7 +6680,7 @@
         <v>774</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G38" s="3" t="s">
         <v>846</v>
@@ -6625,7 +6706,7 @@
         <v>773</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>847</v>
@@ -6651,7 +6732,7 @@
         <v>776</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G40" s="3" t="s">
         <v>848</v>
@@ -6677,7 +6758,7 @@
         <v>777</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>849</v>
@@ -6703,7 +6784,7 @@
         <v>778</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>850</v>
@@ -6729,7 +6810,7 @@
         <v>779</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>851</v>
@@ -6755,7 +6836,7 @@
         <v>780</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>852</v>
@@ -6778,7 +6859,7 @@
         <v>71</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>853</v>
@@ -6801,7 +6882,7 @@
         <v>71</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>854</v>
@@ -6824,7 +6905,7 @@
         <v>71</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>855</v>
@@ -6847,7 +6928,7 @@
         <v>71</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>856</v>
@@ -6870,7 +6951,7 @@
         <v>71</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>857</v>
@@ -6893,7 +6974,7 @@
         <v>71</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G50" s="3" t="s">
         <v>858</v>
@@ -6916,7 +6997,7 @@
         <v>71</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G51" s="3" t="s">
         <v>859</v>
@@ -6939,7 +7020,7 @@
         <v>71</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>860</v>
@@ -6965,7 +7046,7 @@
         <v>782</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G53" s="3" t="s">
         <v>861</v>
@@ -6988,7 +7069,7 @@
         <v>71</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>862</v>
@@ -7014,7 +7095,7 @@
         <v>772</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G55" s="3" t="s">
         <v>863</v>
@@ -7040,7 +7121,7 @@
         <v>772</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G56" s="3" t="s">
         <v>864</v>
@@ -7066,7 +7147,7 @@
         <v>772</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>865</v>
@@ -7092,7 +7173,7 @@
         <v>772</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>866</v>
@@ -7118,7 +7199,7 @@
         <v>772</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>867</v>
@@ -7144,7 +7225,7 @@
         <v>772</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>868</v>
@@ -7170,7 +7251,7 @@
         <v>772</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G61" s="3" t="s">
         <v>869</v>
@@ -7196,7 +7277,7 @@
         <v>772</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>870</v>
@@ -7222,7 +7303,7 @@
         <v>784</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G63" s="3" t="s">
         <v>871</v>
@@ -7245,7 +7326,7 @@
         <v>71</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G64" s="3" t="s">
         <v>872</v>
@@ -7268,7 +7349,7 @@
         <v>71</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G65" s="3" t="s">
         <v>873</v>
@@ -7291,7 +7372,7 @@
         <v>71</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>874</v>
@@ -7317,7 +7398,7 @@
         <v>772</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G67" s="3" t="s">
         <v>348</v>
@@ -7340,7 +7421,7 @@
         <v>71</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G68" s="3" t="s">
         <v>351</v>
@@ -7363,7 +7444,7 @@
         <v>71</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G69" s="3" t="s">
         <v>354</v>
@@ -7389,7 +7470,7 @@
         <v>774</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G70" s="3" t="s">
         <v>357</v>
@@ -7412,7 +7493,7 @@
         <v>71</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G71" s="3" t="s">
         <v>360</v>
@@ -7438,7 +7519,7 @@
         <v>776</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>363</v>
@@ -7461,7 +7542,7 @@
         <v>71</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G73" s="3" t="s">
         <v>366</v>
@@ -7487,7 +7568,7 @@
         <v>778</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G74" s="3" t="s">
         <v>369</v>
@@ -7513,7 +7594,7 @@
         <v>779</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G75" s="3" t="s">
         <v>372</v>
@@ -7539,7 +7620,7 @@
         <v>780</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>375</v>
@@ -7565,7 +7646,7 @@
         <v>775</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G77" s="3" t="s">
         <v>378</v>
@@ -7588,7 +7669,7 @@
         <v>71</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G78" s="3" t="s">
         <v>381</v>
@@ -7614,7 +7695,7 @@
         <v>777</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G79" s="3" t="s">
         <v>384</v>
@@ -7640,7 +7721,7 @@
         <v>773</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G80" s="3" t="s">
         <v>387</v>
@@ -7666,7 +7747,7 @@
         <v>771</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>390</v>
@@ -7692,7 +7773,7 @@
         <v>808</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G82" s="3" t="s">
         <v>393</v>
@@ -7715,7 +7796,7 @@
         <v>71</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>396</v>
@@ -7741,7 +7822,7 @@
         <v>782</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G84" s="3" t="s">
         <v>399</v>
@@ -7764,7 +7845,7 @@
         <v>71</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G85" s="3" t="s">
         <v>402</v>
@@ -7787,7 +7868,7 @@
         <v>71</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G86" s="3" t="s">
         <v>405</v>
@@ -7813,7 +7894,7 @@
         <v>772</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G87" s="3" t="s">
         <v>408</v>
@@ -7839,7 +7920,7 @@
         <v>772</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G88" s="3" t="s">
         <v>411</v>
@@ -7865,7 +7946,7 @@
         <v>772</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>414</v>
@@ -7891,7 +7972,7 @@
         <v>772</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G90" s="3" t="s">
         <v>417</v>
@@ -7917,7 +7998,7 @@
         <v>772</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>420</v>
@@ -7943,7 +8024,7 @@
         <v>772</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G92" s="3" t="s">
         <v>423</v>
@@ -7969,7 +8050,7 @@
         <v>772</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G93" s="3" t="s">
         <v>426</v>
@@ -7995,7 +8076,7 @@
         <v>809</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>429</v>
@@ -8021,7 +8102,7 @@
         <v>809</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G95" s="3" t="s">
         <v>432</v>
@@ -8047,7 +8128,7 @@
         <v>809</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G96" s="3" t="s">
         <v>435</v>
@@ -8073,7 +8154,7 @@
         <v>808</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G97" s="3" t="s">
         <v>438</v>
@@ -8096,7 +8177,7 @@
         <v>71</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G98" s="3" t="s">
         <v>441</v>
@@ -8119,7 +8200,7 @@
         <v>71</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G99" s="3" t="s">
         <v>444</v>
@@ -8142,7 +8223,7 @@
         <v>71</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>447</v>
@@ -8165,7 +8246,7 @@
         <v>71</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>450</v>
@@ -8188,7 +8269,7 @@
         <v>71</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>453</v>
@@ -8211,7 +8292,7 @@
         <v>71</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G103" s="3" t="s">
         <v>456</v>
@@ -8234,7 +8315,7 @@
         <v>71</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G104" s="3" t="s">
         <v>459</v>
@@ -8257,7 +8338,7 @@
         <v>71</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G105" s="3" t="s">
         <v>462</v>
@@ -8280,7 +8361,7 @@
         <v>71</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G106" s="3" t="s">
         <v>465</v>
@@ -8303,7 +8384,7 @@
         <v>71</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G107" s="3" t="s">
         <v>468</v>
@@ -8326,7 +8407,7 @@
         <v>71</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G108" s="3" t="s">
         <v>471</v>
@@ -8349,7 +8430,7 @@
         <v>71</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G109" s="3" t="s">
         <v>474</v>
@@ -8372,7 +8453,7 @@
         <v>71</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G110" s="3" t="s">
         <v>477</v>
@@ -8398,7 +8479,7 @@
         <v>810</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G111" s="3" t="s">
         <v>482</v>
@@ -8424,7 +8505,7 @@
         <v>811</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G112" s="3" t="s">
         <v>485</v>
@@ -8450,7 +8531,7 @@
         <v>812</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G113" s="3" t="s">
         <v>488</v>
@@ -8476,7 +8557,7 @@
         <v>812</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G114" s="3" t="s">
         <v>491</v>
@@ -8502,7 +8583,7 @@
         <v>813</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G115" s="3" t="s">
         <v>494</v>
@@ -8528,7 +8609,7 @@
         <v>813</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G116" s="3" t="s">
         <v>497</v>
@@ -8554,7 +8635,7 @@
         <v>813</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G117" s="3" t="s">
         <v>500</v>
@@ -8580,7 +8661,7 @@
         <v>814</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G118" s="3" t="s">
         <v>503</v>
@@ -8603,7 +8684,7 @@
         <v>71</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G119" s="3" t="s">
         <v>506</v>
@@ -8626,7 +8707,7 @@
         <v>71</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G120" s="3" t="s">
         <v>509</v>
@@ -8649,7 +8730,7 @@
         <v>71</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G121" s="3" t="s">
         <v>512</v>
@@ -8672,7 +8753,7 @@
         <v>71</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G122" s="3" t="s">
         <v>515</v>
@@ -8698,7 +8779,7 @@
         <v>815</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G123" s="3" t="s">
         <v>518</v>
@@ -8721,7 +8802,7 @@
         <v>71</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G124" s="3" t="s">
         <v>521</v>
@@ -8744,7 +8825,7 @@
         <v>71</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G125" s="3" t="s">
         <v>524</v>
@@ -8767,7 +8848,7 @@
         <v>71</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G126" s="3" t="s">
         <v>527</v>
@@ -8793,7 +8874,7 @@
         <v>816</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G127" s="3" t="s">
         <v>530</v>
@@ -8819,7 +8900,7 @@
         <v>817</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G128" s="3" t="s">
         <v>533</v>
@@ -8845,7 +8926,7 @@
         <v>815</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G129" s="3" t="s">
         <v>536</v>
@@ -8871,7 +8952,7 @@
         <v>818</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G130" s="3" t="s">
         <v>539</v>
@@ -8897,7 +8978,7 @@
         <v>819</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G131" s="3" t="s">
         <v>542</v>
@@ -8923,7 +9004,7 @@
         <v>820</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G132" s="3" t="s">
         <v>545</v>
@@ -8949,7 +9030,7 @@
         <v>819</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G133" s="3" t="s">
         <v>548</v>
@@ -8975,7 +9056,7 @@
         <v>821</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G134" s="3" t="s">
         <v>551</v>
@@ -9001,7 +9082,7 @@
         <v>822</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G135" s="3" t="s">
         <v>554</v>
@@ -9027,7 +9108,7 @@
         <v>817</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G136" s="3" t="s">
         <v>557</v>
@@ -9050,7 +9131,7 @@
         <v>71</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G137" s="3" t="s">
         <v>560</v>
@@ -9073,7 +9154,7 @@
         <v>71</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G138" s="3" t="s">
         <v>563</v>
@@ -9099,7 +9180,7 @@
         <v>809</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G139" s="3" t="s">
         <v>566</v>
@@ -9122,7 +9203,7 @@
         <v>71</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G140" s="3" t="s">
         <v>569</v>
@@ -9145,7 +9226,7 @@
         <v>71</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G141" s="3" t="s">
         <v>572</v>
@@ -9168,7 +9249,7 @@
         <v>71</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G142" s="3" t="s">
         <v>575</v>
@@ -9194,7 +9275,7 @@
         <v>823</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G143" s="3" t="s">
         <v>594</v>
@@ -9220,7 +9301,7 @@
         <v>824</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G144" s="3" t="s">
         <v>597</v>
@@ -9246,7 +9327,7 @@
         <v>821</v>
       </c>
       <c r="F145" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G145" s="3" t="s">
         <v>600</v>
@@ -9272,7 +9353,7 @@
         <v>825</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G146" s="3" t="s">
         <v>603</v>
@@ -9298,7 +9379,7 @@
         <v>826</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G147" s="3" t="s">
         <v>606</v>
@@ -9324,7 +9405,7 @@
         <v>772</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G148" s="3" t="s">
         <v>609</v>
@@ -9341,7 +9422,7 @@
         <v>32</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="D149" s="3" t="s">
         <v>71</v>
@@ -9350,7 +9431,7 @@
         <v>772</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G149" s="3" t="s">
         <v>611</v>
@@ -9376,7 +9457,7 @@
         <v>772</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G150" s="3" t="s">
         <v>614</v>
@@ -9402,7 +9483,7 @@
         <v>827</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G151" s="3" t="s">
         <v>617</v>
@@ -9425,7 +9506,7 @@
         <v>71</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G152" s="3" t="s">
         <v>620</v>
@@ -9451,7 +9532,7 @@
         <v>809</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G153" s="3" t="s">
         <v>623</v>
@@ -9474,7 +9555,7 @@
         <v>71</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G154" s="3" t="s">
         <v>626</v>
@@ -9500,7 +9581,7 @@
         <v>828</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G155" s="3" t="s">
         <v>629</v>
@@ -9526,7 +9607,7 @@
         <v>829</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G156" s="3" t="s">
         <v>632</v>
@@ -9552,7 +9633,7 @@
         <v>824</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G157" s="3" t="s">
         <v>635</v>
@@ -9578,7 +9659,7 @@
         <v>830</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G158" s="3" t="s">
         <v>638</v>
@@ -9604,7 +9685,7 @@
         <v>831</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G159" s="3" t="s">
         <v>641</v>
@@ -9630,7 +9711,7 @@
         <v>821</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G160" s="3" t="s">
         <v>644</v>
@@ -9653,7 +9734,7 @@
         <v>71</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G161" s="3" t="s">
         <v>647</v>
@@ -9676,7 +9757,7 @@
         <v>71</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G162" s="3" t="s">
         <v>650</v>
@@ -9699,7 +9780,7 @@
         <v>71</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G163" s="3" t="s">
         <v>653</v>
@@ -9722,7 +9803,7 @@
         <v>71</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G164" s="3" t="s">
         <v>656</v>
@@ -9748,7 +9829,7 @@
         <v>809</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G165" s="3" t="s">
         <v>659</v>
@@ -9771,7 +9852,7 @@
         <v>71</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G166" s="3" t="s">
         <v>662</v>
@@ -9797,7 +9878,7 @@
         <v>772</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G167" s="3" t="s">
         <v>689</v>
@@ -9823,7 +9904,7 @@
         <v>772</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G168" s="3" t="s">
         <v>692</v>
@@ -9849,7 +9930,7 @@
         <v>772</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G169" s="3" t="s">
         <v>695</v>
@@ -9875,7 +9956,7 @@
         <v>772</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G170" s="3" t="s">
         <v>698</v>
@@ -9892,7 +9973,7 @@
         <v>33</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>1350</v>
+        <v>1343</v>
       </c>
       <c r="D171" s="3" t="s">
         <v>71</v>
@@ -9901,7 +9982,7 @@
         <v>833</v>
       </c>
       <c r="F171" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G171" s="3" t="s">
         <v>700</v>
@@ -9927,7 +10008,7 @@
         <v>834</v>
       </c>
       <c r="F172" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G172" s="3" t="s">
         <v>703</v>
@@ -9944,7 +10025,7 @@
         <v>33</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="D173" s="3" t="s">
         <v>71</v>
@@ -9953,7 +10034,7 @@
         <v>835</v>
       </c>
       <c r="F173" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G173" s="3" t="s">
         <v>705</v>
@@ -9979,7 +10060,7 @@
         <v>835</v>
       </c>
       <c r="F174" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G174" s="3" t="s">
         <v>708</v>
@@ -10005,7 +10086,7 @@
         <v>835</v>
       </c>
       <c r="F175" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G175" s="3" t="s">
         <v>711</v>
@@ -10028,7 +10109,7 @@
         <v>71</v>
       </c>
       <c r="F176" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G176" s="3" t="s">
         <v>714</v>
@@ -10051,7 +10132,7 @@
         <v>71</v>
       </c>
       <c r="F177" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G177" s="3" t="s">
         <v>717</v>
@@ -10074,7 +10155,7 @@
         <v>71</v>
       </c>
       <c r="F178" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G178" s="3" t="s">
         <v>720</v>
@@ -10100,7 +10181,7 @@
         <v>821</v>
       </c>
       <c r="F179" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G179" s="3" t="s">
         <v>723</v>
@@ -10126,7 +10207,7 @@
         <v>836</v>
       </c>
       <c r="F180" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G180" s="3" t="s">
         <v>726</v>
@@ -10152,7 +10233,7 @@
         <v>836</v>
       </c>
       <c r="F181" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G181" s="3" t="s">
         <v>729</v>
@@ -10178,7 +10259,7 @@
         <v>837</v>
       </c>
       <c r="F182" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G182" s="3" t="s">
         <v>732</v>
@@ -10204,7 +10285,7 @@
         <v>838</v>
       </c>
       <c r="F183" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G183" s="3" t="s">
         <v>735</v>
@@ -10230,7 +10311,7 @@
         <v>821</v>
       </c>
       <c r="F184" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G184" s="3" t="s">
         <v>738</v>
@@ -10256,7 +10337,7 @@
         <v>839</v>
       </c>
       <c r="F185" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G185" s="3" t="s">
         <v>741</v>
@@ -10282,7 +10363,7 @@
         <v>840</v>
       </c>
       <c r="F186" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G186" s="3" t="s">
         <v>744</v>
@@ -10308,7 +10389,7 @@
         <v>841</v>
       </c>
       <c r="F187" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G187" s="3" t="s">
         <v>747</v>
@@ -10331,7 +10412,7 @@
         <v>71</v>
       </c>
       <c r="F188" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G188" s="3" t="s">
         <v>750</v>
@@ -10357,7 +10438,7 @@
         <v>832</v>
       </c>
       <c r="F189" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G189" s="3" t="s">
         <v>753</v>
@@ -10380,7 +10461,7 @@
         <v>71</v>
       </c>
       <c r="F190" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G190" s="3" t="s">
         <v>756</v>
@@ -10403,7 +10484,7 @@
         <v>71</v>
       </c>
       <c r="F191" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G191" s="3" t="s">
         <v>759</v>
@@ -10429,7 +10510,7 @@
         <v>842</v>
       </c>
       <c r="F192" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G192" s="3" t="s">
         <v>762</v>
@@ -10455,7 +10536,7 @@
         <v>843</v>
       </c>
       <c r="F193" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G193" s="3" t="s">
         <v>765</v>
@@ -10478,7 +10559,7 @@
         <v>71</v>
       </c>
       <c r="F194" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G194" s="3" t="s">
         <v>768</v>
@@ -10504,7 +10585,7 @@
         <v>832</v>
       </c>
       <c r="F195" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G195" s="3" t="s">
         <v>665</v>
@@ -10530,7 +10611,7 @@
         <v>809</v>
       </c>
       <c r="F196" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G196" s="3" t="s">
         <v>668</v>
@@ -10556,7 +10637,7 @@
         <v>809</v>
       </c>
       <c r="F197" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G197" s="3" t="s">
         <v>671</v>
@@ -10579,7 +10660,7 @@
         <v>71</v>
       </c>
       <c r="F198" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G198" s="3" t="s">
         <v>674</v>
@@ -10602,7 +10683,7 @@
         <v>71</v>
       </c>
       <c r="F199" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G199" s="3" t="s">
         <v>677</v>
@@ -10625,7 +10706,7 @@
         <v>71</v>
       </c>
       <c r="F200" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G200" s="3" t="s">
         <v>680</v>
@@ -10648,7 +10729,7 @@
         <v>71</v>
       </c>
       <c r="F201" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G201" s="3" t="s">
         <v>683</v>
@@ -10671,7 +10752,7 @@
         <v>71</v>
       </c>
       <c r="F202" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G202" s="3" t="s">
         <v>686</v>
@@ -10688,7 +10769,7 @@
         <v>25</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="D203" s="3" t="s">
         <v>71</v>
@@ -10697,7 +10778,7 @@
         <v>785</v>
       </c>
       <c r="F203" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G203" s="3" t="s">
         <v>276</v>
@@ -10723,7 +10804,7 @@
         <v>786</v>
       </c>
       <c r="F204" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G204" s="3" t="s">
         <v>279</v>
@@ -10749,7 +10830,7 @@
         <v>787</v>
       </c>
       <c r="F205" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G205" s="3" t="s">
         <v>282</v>
@@ -10775,7 +10856,7 @@
         <v>788</v>
       </c>
       <c r="F206" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G206" s="3" t="s">
         <v>285</v>
@@ -10801,7 +10882,7 @@
         <v>789</v>
       </c>
       <c r="F207" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G207" s="3" t="s">
         <v>288</v>
@@ -10827,7 +10908,7 @@
         <v>790</v>
       </c>
       <c r="F208" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G208" s="3" t="s">
         <v>291</v>
@@ -10853,7 +10934,7 @@
         <v>791</v>
       </c>
       <c r="F209" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G209" s="3" t="s">
         <v>294</v>
@@ -10879,7 +10960,7 @@
         <v>792</v>
       </c>
       <c r="F210" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G210" s="3" t="s">
         <v>297</v>
@@ -10905,7 +10986,7 @@
         <v>793</v>
       </c>
       <c r="F211" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G211" s="3" t="s">
         <v>300</v>
@@ -10931,7 +11012,7 @@
         <v>794</v>
       </c>
       <c r="F212" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G212" s="3" t="s">
         <v>303</v>
@@ -10957,7 +11038,7 @@
         <v>795</v>
       </c>
       <c r="F213" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G213" s="3" t="s">
         <v>306</v>
@@ -10983,7 +11064,7 @@
         <v>796</v>
       </c>
       <c r="F214" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G214" s="3" t="s">
         <v>309</v>
@@ -11009,7 +11090,7 @@
         <v>797</v>
       </c>
       <c r="F215" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G215" s="3" t="s">
         <v>312</v>
@@ -11035,7 +11116,7 @@
         <v>798</v>
       </c>
       <c r="F216" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G216" s="3" t="s">
         <v>315</v>
@@ -11061,7 +11142,7 @@
         <v>799</v>
       </c>
       <c r="F217" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G217" s="3" t="s">
         <v>318</v>
@@ -11087,7 +11168,7 @@
         <v>800</v>
       </c>
       <c r="F218" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G218" s="3" t="s">
         <v>321</v>
@@ -11113,7 +11194,7 @@
         <v>801</v>
       </c>
       <c r="F219" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G219" s="3" t="s">
         <v>324</v>
@@ -11139,7 +11220,7 @@
         <v>802</v>
       </c>
       <c r="F220" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G220" s="3" t="s">
         <v>327</v>
@@ -11165,7 +11246,7 @@
         <v>803</v>
       </c>
       <c r="F221" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G221" s="3" t="s">
         <v>330</v>
@@ -11191,7 +11272,7 @@
         <v>804</v>
       </c>
       <c r="F222" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G222" s="3" t="s">
         <v>333</v>
@@ -11217,7 +11298,7 @@
         <v>805</v>
       </c>
       <c r="F223" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G223" s="3" t="s">
         <v>336</v>
@@ -11243,7 +11324,7 @@
         <v>806</v>
       </c>
       <c r="F224" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G224" s="3" t="s">
         <v>339</v>
@@ -11269,7 +11350,7 @@
         <v>807</v>
       </c>
       <c r="F225" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G225" s="3" t="s">
         <v>342</v>
@@ -11292,7 +11373,7 @@
         <v>71</v>
       </c>
       <c r="F226" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G226" s="3" t="s">
         <v>345</v>
@@ -11318,10 +11399,10 @@
         <v>785</v>
       </c>
       <c r="F227" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G227" s="3" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="H227" s="3" t="s">
         <v>277</v>
@@ -11344,10 +11425,10 @@
         <v>786</v>
       </c>
       <c r="F228" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G228" s="3" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="H228" s="3" t="s">
         <v>280</v>
@@ -11370,10 +11451,10 @@
         <v>792</v>
       </c>
       <c r="F229" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G229" s="3" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="H229" s="3" t="s">
         <v>283</v>
@@ -11396,10 +11477,10 @@
         <v>793</v>
       </c>
       <c r="F230" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G230" s="3" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="H230" s="3" t="s">
         <v>286</v>
@@ -11422,10 +11503,10 @@
         <v>794</v>
       </c>
       <c r="F231" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G231" s="3" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="H231" s="3" t="s">
         <v>289</v>
@@ -11448,10 +11529,10 @@
         <v>798</v>
       </c>
       <c r="F232" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G232" s="3" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="H232" s="3" t="s">
         <v>292</v>
@@ -11474,10 +11555,10 @@
         <v>799</v>
       </c>
       <c r="F233" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G233" s="3" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="H233" s="3" t="s">
         <v>295</v>
@@ -11500,10 +11581,10 @@
         <v>800</v>
       </c>
       <c r="F234" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G234" s="3" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="H234" s="3" t="s">
         <v>298</v>
@@ -11526,10 +11607,10 @@
         <v>801</v>
       </c>
       <c r="F235" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G235" s="3" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="H235" s="3" t="s">
         <v>301</v>
@@ -11549,13 +11630,13 @@
         <v>71</v>
       </c>
       <c r="E236" s="3" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="F236" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G236" s="3" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="H236" s="3" t="s">
         <v>304</v>
@@ -11575,13 +11656,13 @@
         <v>71</v>
       </c>
       <c r="E237" s="3" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="F237" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G237" s="3" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="H237" s="3" t="s">
         <v>307</v>
@@ -11601,13 +11682,13 @@
         <v>71</v>
       </c>
       <c r="E238" s="3" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="F238" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G238" s="3" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="H238" s="3" t="s">
         <v>310</v>
@@ -11627,13 +11708,13 @@
         <v>71</v>
       </c>
       <c r="E239" s="3" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="F239" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G239" s="3" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="H239" s="3" t="s">
         <v>313</v>
@@ -11653,13 +11734,13 @@
         <v>71</v>
       </c>
       <c r="E240" s="3" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="F240" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G240" s="3" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="H240" s="3" t="s">
         <v>316</v>
@@ -11679,10 +11760,10 @@
         <v>71</v>
       </c>
       <c r="F241" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G241" s="3" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="H241" s="3" t="s">
         <v>319</v>
@@ -11702,10 +11783,10 @@
         <v>71</v>
       </c>
       <c r="F242" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="G242" s="3" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="H242" s="3" t="s">
         <v>322</v>
@@ -11959,7 +12040,7 @@
         <v>53</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>252</v>
@@ -11968,7 +12049,7 @@
         <v>52</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>21</v>
@@ -12025,9 +12106,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F88EA41A-0FF0-4A09-8A39-B393D7AEF7F8}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -12044,16 +12125,16 @@
         <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1351</v>
+        <v>1344</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1352</v>
+        <v>1345</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>1365</v>
+        <v>1358</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>913</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -12064,16 +12145,16 @@
         <v>225</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1354</v>
+        <v>1347</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1353</v>
+        <v>1346</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>1366</v>
+        <v>1359</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>1355</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -12084,16 +12165,16 @@
         <v>24</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>1377</v>
+        <v>1370</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>1412</v>
+        <v>1405</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>1357</v>
+        <v>1350</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>1358</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -12104,16 +12185,16 @@
         <v>24</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>1356</v>
+        <v>1349</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>1379</v>
+        <v>1372</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>1359</v>
+        <v>1352</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>1360</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -12124,16 +12205,16 @@
         <v>24</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>1356</v>
+        <v>1349</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>1379</v>
+        <v>1372</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>1361</v>
+        <v>1354</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>1362</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -12144,16 +12225,16 @@
         <v>24</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>1363</v>
+        <v>1356</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>1379</v>
+        <v>1372</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>1359</v>
+        <v>1352</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>1364</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -12164,16 +12245,16 @@
         <v>25</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>1367</v>
+        <v>1360</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>1378</v>
+        <v>1371</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>1368</v>
+        <v>1361</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>1369</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -12184,16 +12265,16 @@
         <v>25</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>1367</v>
+        <v>1360</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>1379</v>
+        <v>1372</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>1359</v>
+        <v>1352</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>1370</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -12204,16 +12285,16 @@
         <v>25</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>1367</v>
+        <v>1360</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>1379</v>
+        <v>1372</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>1361</v>
+        <v>1354</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>1371</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -12224,16 +12305,16 @@
         <v>25</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>1365</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>1372</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>1379</v>
-      </c>
       <c r="E10" s="3" t="s">
-        <v>1359</v>
+        <v>1352</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>1373</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -12244,16 +12325,16 @@
         <v>25</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>1376</v>
+        <v>1369</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>1379</v>
+        <v>1372</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>1374</v>
+        <v>1367</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>1375</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -12264,16 +12345,16 @@
         <v>28</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>1380</v>
+        <v>1373</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>1378</v>
+        <v>1371</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>1368</v>
+        <v>1361</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>1381</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -12284,16 +12365,16 @@
         <v>28</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>1380</v>
+        <v>1373</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>1379</v>
+        <v>1372</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>1359</v>
+        <v>1352</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>1382</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -12304,16 +12385,16 @@
         <v>28</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>1380</v>
+        <v>1373</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>1379</v>
+        <v>1372</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>1361</v>
+        <v>1354</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>1383</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -12324,16 +12405,16 @@
         <v>28</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>1384</v>
+        <v>1377</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>1379</v>
+        <v>1372</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>1359</v>
+        <v>1352</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>1385</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -12344,16 +12425,16 @@
         <v>28</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>1386</v>
+        <v>1379</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>1379</v>
+        <v>1372</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>1359</v>
+        <v>1352</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>1387</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -12364,16 +12445,16 @@
         <v>29</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>1388</v>
+        <v>1381</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>1412</v>
+        <v>1405</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>1357</v>
+        <v>1350</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>1389</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -12384,16 +12465,16 @@
         <v>29</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>1388</v>
+        <v>1381</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>1379</v>
+        <v>1372</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>1359</v>
+        <v>1352</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>1390</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -12404,16 +12485,16 @@
         <v>29</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>1388</v>
+        <v>1381</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>1379</v>
+        <v>1372</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>1391</v>
+        <v>1384</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>1392</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -12424,16 +12505,16 @@
         <v>29</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>1393</v>
+        <v>1386</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>1379</v>
+        <v>1372</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>1359</v>
+        <v>1352</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>1394</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -12444,16 +12525,16 @@
         <v>29</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>1393</v>
+        <v>1386</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>1379</v>
+        <v>1372</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>1391</v>
+        <v>1384</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>1395</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -12464,16 +12545,16 @@
         <v>29</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>1411</v>
+        <v>1404</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>1379</v>
+        <v>1372</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>1374</v>
+        <v>1367</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>1396</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -12484,16 +12565,16 @@
         <v>32</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>1397</v>
+        <v>1390</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>1378</v>
+        <v>1371</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>1368</v>
+        <v>1361</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>1398</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -12504,16 +12585,16 @@
         <v>32</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>1397</v>
+        <v>1390</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>1379</v>
+        <v>1372</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>1359</v>
+        <v>1352</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>1399</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -12524,16 +12605,16 @@
         <v>32</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>1400</v>
+        <v>1393</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>1379</v>
+        <v>1372</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>1359</v>
+        <v>1352</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>1401</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -12544,16 +12625,16 @@
         <v>32</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>1402</v>
+        <v>1395</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>1379</v>
+        <v>1372</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>1361</v>
+        <v>1354</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>1403</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -12564,16 +12645,16 @@
         <v>33</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>1404</v>
+        <v>1397</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>1378</v>
+        <v>1371</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>1368</v>
+        <v>1361</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>1405</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -12584,16 +12665,16 @@
         <v>33</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>1404</v>
+        <v>1397</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>1379</v>
+        <v>1372</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>1359</v>
+        <v>1352</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>1406</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -12604,16 +12685,16 @@
         <v>35</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>1407</v>
+        <v>1400</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>1378</v>
+        <v>1371</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>1368</v>
+        <v>1361</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>1408</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -12624,16 +12705,16 @@
         <v>35</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>1407</v>
+        <v>1400</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>1379</v>
+        <v>1372</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>1359</v>
+        <v>1352</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>1409</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -12644,16 +12725,16 @@
         <v>35</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>1407</v>
+        <v>1400</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>1379</v>
+        <v>1372</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>1391</v>
+        <v>1384</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>1410</v>
+        <v>1403</v>
       </c>
     </row>
   </sheetData>
@@ -12689,10 +12770,10 @@
         <v>223</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>273</v>
@@ -12709,10 +12790,10 @@
         <v>242</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>952</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>953</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>954</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>272</v>
@@ -12735,7 +12816,7 @@
         <v>244</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F3" s="5">
         <v>1</v>
@@ -12755,7 +12836,7 @@
         <v>245</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F4" s="5">
         <v>1</v>
@@ -12775,7 +12856,7 @@
         <v>246</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F5" s="5">
         <v>1</v>
@@ -12795,7 +12876,7 @@
         <v>247</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F6" s="5">
         <v>1</v>
@@ -12815,7 +12896,7 @@
         <v>248</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F7" s="5">
         <v>1</v>
@@ -12835,7 +12916,7 @@
         <v>249</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F8" s="5">
         <v>1</v>
@@ -12855,7 +12936,7 @@
         <v>250</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F9" s="5">
         <v>1</v>
@@ -12875,7 +12956,7 @@
         <v>251</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F10" s="5">
         <v>1</v>
@@ -12961,6 +13042,63 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E2C180A-25ED-435B-B21E-89E38876E68D}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.77734375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="31" style="3" customWidth="1"/>
+    <col min="3" max="4" width="15.77734375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="30.77734375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="10.77734375" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1416</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1417</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>1421</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC5F79EE-3A9B-4CC2-97CB-3AD5DF68D9EA}">
   <dimension ref="A1:A384"/>
   <sheetViews>
@@ -12976,1922 +13114,1922 @@
   <sheetData>
     <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" s="3" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" s="3" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" s="3" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" s="3" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" s="3" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" s="3" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" s="3" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" s="3" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" s="3" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" s="3" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" s="3" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" s="3" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" s="3" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" s="3" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" s="3" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" s="3" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" s="3" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" s="3" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" s="3" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" s="3" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" s="3" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" s="3" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" s="3" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" s="3" t="s">
-        <v>1200</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" s="3" t="s">
-        <v>1201</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" s="3" t="s">
-        <v>1202</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" s="3" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" s="3" t="s">
-        <v>1204</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" s="3" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" s="3" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" s="3" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" s="3" t="s">
-        <v>1208</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" s="3" t="s">
-        <v>1209</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249" s="3" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" s="3" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" s="3" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252" s="3" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" s="3" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254" s="3" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255" s="3" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" s="3" t="s">
-        <v>1217</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" s="3" t="s">
-        <v>1218</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258" s="3" t="s">
-        <v>1219</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" s="3" t="s">
-        <v>1220</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" s="3" t="s">
-        <v>1221</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261" s="3" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" s="3" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" s="3" t="s">
-        <v>1224</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264" s="3" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265" s="3" t="s">
-        <v>1226</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266" s="3" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267" s="3" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" s="3" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269" s="3" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270" s="3" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" s="3" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" s="3" t="s">
-        <v>1233</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273" s="3" t="s">
-        <v>1234</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274" s="3" t="s">
-        <v>1235</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275" s="3" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276" s="3" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" s="3" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" s="3" t="s">
-        <v>1239</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279" s="3" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" s="3" t="s">
-        <v>1241</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281" s="3" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282" s="3" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283" s="3" t="s">
-        <v>1244</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" s="3" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285" s="3" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286" s="3" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287" s="3" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288" s="3" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289" s="3" t="s">
-        <v>1250</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290" s="3" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291" s="3" t="s">
-        <v>1252</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292" s="3" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293" s="3" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294" s="3" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295" s="3" t="s">
-        <v>1256</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296" s="3" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297" s="3" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298" s="3" t="s">
-        <v>1259</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299" s="3" t="s">
-        <v>1260</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300" s="3" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301" s="3" t="s">
-        <v>1262</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302" s="3" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303" s="3" t="s">
-        <v>1264</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304" s="3" t="s">
-        <v>1265</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305" s="3" t="s">
-        <v>1266</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306" s="3" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307" s="3" t="s">
-        <v>1268</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308" s="3" t="s">
-        <v>1269</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A309" s="3" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310" s="3" t="s">
-        <v>1271</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311" s="3" t="s">
-        <v>1272</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A312" s="3" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A313" s="3" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A314" s="3" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A315" s="3" t="s">
-        <v>1276</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316" s="3" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317" s="3" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A318" s="3" t="s">
-        <v>1279</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A319" s="3" t="s">
-        <v>1280</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A320" s="3" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A321" s="3" t="s">
-        <v>1282</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A322" s="3" t="s">
-        <v>1283</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A323" s="3" t="s">
-        <v>1284</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A324" s="3" t="s">
-        <v>1285</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A325" s="3" t="s">
-        <v>1286</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A326" s="3" t="s">
-        <v>1287</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A327" s="3" t="s">
-        <v>1288</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A328" s="3" t="s">
-        <v>1289</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A329" s="3" t="s">
-        <v>1290</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A330" s="3" t="s">
-        <v>1291</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A331" s="3" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A332" s="3" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A333" s="3" t="s">
-        <v>1294</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A334" s="3" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A335" s="3" t="s">
-        <v>1296</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A336" s="3" t="s">
-        <v>1297</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A337" s="3" t="s">
-        <v>1298</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A338" s="3" t="s">
-        <v>1299</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A339" s="3" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A340" s="3" t="s">
-        <v>1301</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A341" s="3" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A342" s="3" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A343" s="3" t="s">
-        <v>1304</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A344" s="3" t="s">
-        <v>1305</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A345" s="3" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A346" s="3" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A347" s="3" t="s">
-        <v>1308</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A348" s="3" t="s">
-        <v>1309</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A349" s="3" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A350" s="3" t="s">
-        <v>1311</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A351" s="3" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A352" s="3" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A353" s="3" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A354" s="3" t="s">
-        <v>1315</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A355" s="3" t="s">
-        <v>1316</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A356" s="3" t="s">
-        <v>1317</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A357" s="3" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A358" s="3" t="s">
-        <v>1319</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A359" s="3" t="s">
-        <v>1320</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A360" s="3" t="s">
-        <v>1321</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A361" s="3" t="s">
-        <v>1322</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A362" s="3" t="s">
-        <v>1323</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A363" s="3" t="s">
-        <v>1324</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A364" s="3" t="s">
-        <v>1325</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A365" s="3" t="s">
-        <v>1326</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A366" s="3" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A367" s="3" t="s">
-        <v>1328</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A368" s="3" t="s">
-        <v>1329</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A369" s="3" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A370" s="3" t="s">
-        <v>1331</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A371" s="3" t="s">
-        <v>1332</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A372" s="3" t="s">
-        <v>1333</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A373" s="3" t="s">
-        <v>1334</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A374" s="3" t="s">
-        <v>1335</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A375" s="3" t="s">
-        <v>1336</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A376" s="3" t="s">
-        <v>1337</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A377" s="3" t="s">
-        <v>1338</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A378" s="3" t="s">
-        <v>1339</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A379" s="3" t="s">
-        <v>1340</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A380" s="3" t="s">
-        <v>1341</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A381" s="3" t="s">
-        <v>1342</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A382" s="3" t="s">
-        <v>1343</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A383" s="3" t="s">
-        <v>1344</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A384" s="3" t="s">
-        <v>1345</v>
+        <v>1342</v>
       </c>
     </row>
   </sheetData>
@@ -14900,7 +15038,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B98D136-862D-440D-860B-C767349ED869}">
   <dimension ref="A1:A3"/>
   <sheetViews>
@@ -14913,64 +15051,21 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7A363C5-B214-4483-A9DD-5B6CA8B64644}">
-  <dimension ref="A1:A5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>944</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
 </file>
--- a/BedivereKnxClient/data.xlsx
+++ b/BedivereKnxClient/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Program\Ouroboros\BedivereKnxClient\BedivereKnxClient\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{318F8BCB-36E2-4506-848E-CD26A8ED8BFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20BCAF04-C7FF-453C-A34B-2CC904712481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -200,7 +200,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2727" uniqueCount="1422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2731" uniqueCount="1426">
   <si>
     <t>AreaCode</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4629,6 +4629,22 @@
   </si>
   <si>
     <t>密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://127.0.0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>123456</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4639,7 +4655,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4678,6 +4694,14 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -4696,10 +4720,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4712,9 +4737,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -13043,11 +13070,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E2C180A-25ED-435B-B21E-89E38876E68D}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -13055,11 +13082,9 @@
     <col min="1" max="1" width="15.77734375" style="3" customWidth="1"/>
     <col min="2" max="2" width="31" style="3" customWidth="1"/>
     <col min="3" max="4" width="15.77734375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="30.77734375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="10.77734375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1414</v>
       </c>
@@ -13072,10 +13097,8 @@
       <c r="D1" s="2" t="s">
         <v>1417</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="4"/>
-    </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1418</v>
       </c>
@@ -13088,13 +13111,28 @@
       <c r="D2" s="2" t="s">
         <v>1421</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>1424</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>1425</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{A0FE9B7D-8D43-42FD-A5BE-5D07CA7E3A73}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/BedivereKnxClient/data.xlsx
+++ b/BedivereKnxClient/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Program\Ouroboros\BedivereKnxClient\BedivereKnxClient\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20BCAF04-C7FF-453C-A34B-2CC904712481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0105C4E6-7F34-4606-9131-0C0E8E19340C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Interfaces" sheetId="4" r:id="rId1"/>
@@ -4572,30 +4572,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GrpAddr-Sw_Ctl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GrpDpt-Sw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GrpAddr-Sw_Fdb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GrpDpt-Val</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GrpAddr-Val_Ctl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GrpAddr-Val_Fdb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>InterfaceAddress</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4645,6 +4621,30 @@
   </si>
   <si>
     <t>123456</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sw-GrpDpt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sw-GrpAddr_Ctl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sw-GrpAddr_Fdb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Val-GrpDpt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Val-GrpAddr_Ctl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Val-GrpAddr_Fdb</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5046,7 +5046,7 @@
         <v>913</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1413</v>
+        <v>1407</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>4</v>
@@ -5744,9 +5744,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE9671D8-C670-4FF9-9F5F-C699E4CE0AC7}">
   <dimension ref="A1:K242"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5778,22 +5778,22 @@
         <v>911</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>1408</v>
+        <v>1420</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>1407</v>
+        <v>1421</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>1409</v>
+        <v>1422</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>1410</v>
+        <v>1423</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>1411</v>
+        <v>1424</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>1412</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -13072,7 +13072,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E2C180A-25ED-435B-B21E-89E38876E68D}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
@@ -13086,44 +13086,44 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>1414</v>
+        <v>1408</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1415</v>
+        <v>1409</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1416</v>
+        <v>1410</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1417</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>1418</v>
+        <v>1412</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1419</v>
+        <v>1413</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1420</v>
+        <v>1414</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1421</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>1422</v>
+        <v>1416</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>1423</v>
+        <v>1417</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>1424</v>
+        <v>1418</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
   </sheetData>

--- a/BedivereKnxClient/data.xlsx
+++ b/BedivereKnxClient/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Program\Ouroboros\BedivereKnxClient\BedivereKnxClient\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0105C4E6-7F34-4606-9131-0C0E8E19340C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6ACB98B-5386-4A34-97C2-2735488B106F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4624,28 +4624,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Sw-GrpDpt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sw-GrpAddr_Ctl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sw-GrpAddr_Fdb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Val-GrpDpt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Val-GrpAddr_Ctl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Val-GrpAddr_Fdb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Sw_GrpDpt</t>
+  </si>
+  <si>
+    <t>Sw_Ctl_GrpAddr</t>
+  </si>
+  <si>
+    <t>Sw_Fdb_GrpAddr</t>
+  </si>
+  <si>
+    <t>Val_GrpDpt</t>
+  </si>
+  <si>
+    <t>Val_Ctl_GrpAddr</t>
+  </si>
+  <si>
+    <t>Val_Fdb_GrpAddr</t>
   </si>
 </sst>
 </file>
@@ -5746,7 +5740,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5755,10 +5749,7 @@
     <col min="3" max="3" width="20.77734375" style="3" customWidth="1"/>
     <col min="4" max="4" width="15.77734375" style="3" customWidth="1"/>
     <col min="5" max="5" width="20.77734375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" style="3" customWidth="1"/>
-    <col min="7" max="8" width="16.77734375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="17.33203125" style="3" customWidth="1"/>
-    <col min="10" max="11" width="16.77734375" style="3" customWidth="1"/>
+    <col min="6" max="11" width="18.77734375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
